--- a/bin/print/Expense.xlsx
+++ b/bin/print/Expense.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Summary1" type="6" refreshedVersion="4" background="1" refreshOnLoad="1">
-    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\Expense.txt" tab="0" delimiter="|">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS_Udugama\bin\print\Expense.txt" tab="0" delimiter="|">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -41,7 +41,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -173,13 +173,13 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -730,7 +730,6 @@
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="21"/>
       <c r="E13" s="9"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -746,8 +745,6 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="9"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -763,7 +760,9 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -778,6 +777,8 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="9"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -793,7 +794,6 @@
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
       <c r="E17" s="9"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -825,8 +825,6 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="E19" s="9"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
@@ -841,6 +839,9 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="9"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -856,9 +857,7 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="21"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
@@ -873,6 +872,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="21"/>
       <c r="E22" s="9"/>
       <c r="G22"/>
